--- a/FlightDataAnalysis/Exponential_regression.xlsx
+++ b/FlightDataAnalysis/Exponential_regression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Documents\GitHub\FlightDynamicsSVV\FlightDataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8590098A-05D5-4BCA-A4DB-8A22ED5F6FB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62932B87-DD54-4677-B764-ABECD2398FCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="630" windowWidth="28770" windowHeight="15570" firstSheet="2" activeTab="2" xr2:uid="{12215BDE-42B0-4DC8-8CEE-8812EE512323}"/>
+    <workbookView xWindow="8580" yWindow="1665" windowWidth="28770" windowHeight="15570" firstSheet="4" activeTab="4" xr2:uid="{12215BDE-42B0-4DC8-8CEE-8812EE512323}"/>
   </bookViews>
   <sheets>
     <sheet name="Phugoid_V" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="2">
+  <si>
+    <t>Flight data</t>
+  </si>
+  <si>
+    <t>Reference data</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,7 +492,1469 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.7394575678040243E-2"/>
+                  <c:y val="-0.27969378827646546"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>D_Dutch_yawrate!$A$24:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9000000000000901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>D_Dutch_yawrate!$B$24:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25867940103172798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.181108569155323</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12018108391044401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8907-497C-B158-51F1F10060FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="696250448"/>
+        <c:axId val="711292432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="696250448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711292432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="711292432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696250448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.7394575678040243E-2"/>
+                  <c:y val="-0.27969378827646546"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>D_Dutch_rollrate!$A$7:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5999999999999099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0999999999999108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>D_Dutch_rollrate!$B$7:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.185054044701775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.106966951683822</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3837518197881099E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C74D-423F-AF7E-7FFB2D97774D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="696250448"/>
+        <c:axId val="711292432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="696250448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711292432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="711292432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696250448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.7394575678040243E-2"/>
+                  <c:y val="-0.27969378827646546"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>D_Dutch_rollrate!$A$23:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8000000000001801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>D_Dutch_rollrate!$B$23:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.20418367901426199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.117945386733829</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.06969126408664E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2925-469F-A360-626862B8D803}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="696250448"/>
+        <c:axId val="711292432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="696250448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711292432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="711292432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696250448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.7394575678040243E-2"/>
+                  <c:y val="-0.27969378827646546"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Phugoid_V!$A$29:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.099999999999397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.399999999999608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.699999999999804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.7999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>126.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>147.89999999999978</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>168.9999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>188.5999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Phugoid_V!$B$29:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.45074499169914</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7848135299678498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2798985301858297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9542552057932303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0167763103977601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9088777194750302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6796119393425499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1133870406587496</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.75005135838907</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4157496341194902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0117-40E1-B5AB-0E943C4D7662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="696250448"/>
+        <c:axId val="711292432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="696250448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711292432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="711292432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696250448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -866,7 +2339,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -993,7 +2466,398 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Dutch_yawrate!$A$11:$A$16</c:f>
+              <c:f>Phugoid_th!$A$32:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.599999999999895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>148.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>168.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Phugoid_th!$B$32:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.2056124768599701E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10697229548256799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1294793059363504E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9999230976961095E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8486643252296295E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.40351363167321E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0440245367028201E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9173127206184901E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7901983535158799E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-985E-477A-B57E-8527ECC39248}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="696250448"/>
+        <c:axId val="711292432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="696250448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711292432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="711292432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696250448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.7394575678040243E-2"/>
+                  <c:y val="-0.27969378827646546"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dutch_yawrate!$A$13:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1020,7 +2884,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Dutch_yawrate!$B$11:$B$16</c:f>
+              <c:f>Dutch_yawrate!$B$13:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1239,7 +3103,374 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.7394575678040243E-2"/>
+                  <c:y val="-0.27969378827646546"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dutch_yawrate!$A$27:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1000000000003602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6000000000003602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2000000000002604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dutch_yawrate!$B$27:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.30728582407159299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22557178103679201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18476649477851001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.107037855984464</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9854319038180706E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D73B-49C4-9916-518573A839FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="696250448"/>
+        <c:axId val="711292432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="696250448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711292432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="711292432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696250448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1606,7 +3837,374 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.7394575678040243E-2"/>
+                  <c:y val="-0.27969378827646546"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dutch_rollrate!$A$24:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6000000000003602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1999999999998199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6999999999997808</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1999999999997808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dutch_rollrate!$B$24:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.246080176305816</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16792644762581199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13146960297941099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8878205295024895E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7539080136582899E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-66F4-4021-8866-F6340924EAB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="696250448"/>
+        <c:axId val="711292432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="696250448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711292432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="711292432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696250448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1961,362 +4559,127 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.7394575678040243E-2"/>
-                  <c:y val="-0.27969378827646546"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>D_Dutch_rollrate!$A$7:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5999999999999099</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0999999999999108</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>D_Dutch_rollrate!$B$7:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.185054044701775</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.106966951683822</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.3837518197881099E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C74D-423F-AF7E-7FFB2D97774D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="696250448"/>
-        <c:axId val="711292432"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="696250448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="711292432"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="711292432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="696250448"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2556,6 +4919,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3072,7 +5555,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3588,7 +6071,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4104,7 +6587,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4620,7 +7103,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5136,7 +7619,3103 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5687,6 +11266,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749E2D97-48D0-4842-98E0-374FA72AF2DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5735,6 +11352,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F979F71-6C9F-4CAB-B3DB-819A6A124D6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5744,13 +11399,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5773,6 +11428,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ECE8E45-DA1B-414A-A83D-9C1F924FE98C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5821,6 +11514,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820925DF-1B97-47ED-9EAF-C2851BAA8CB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5864,6 +11595,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E96DBC3-D552-46D2-B9A7-11FAA56FBC0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5902,6 +11671,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADAA68E8-94EB-4739-8099-9C1434B1640B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6207,10 +12014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0237FB03-BFE8-4922-9856-594D2DBACA9F}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6339,6 +12146,191 @@
       <c r="B15">
         <f t="shared" si="1"/>
         <v>3.89189749131498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>19.3000000000002</v>
+      </c>
+      <c r="B18">
+        <v>7.45074499169914</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>6.7848135299678498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>61.399999999999601</v>
+      </c>
+      <c r="B20">
+        <v>6.2798985301858297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>82.699999999999804</v>
+      </c>
+      <c r="B21">
+        <v>5.9542552057932303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>103</v>
+      </c>
+      <c r="B22">
+        <v>5.0167763103977601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>125.1</v>
+      </c>
+      <c r="B23">
+        <v>4.9088777194750302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>145.5</v>
+      </c>
+      <c r="B24">
+        <v>3.6796119393425499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>167.2</v>
+      </c>
+      <c r="B25">
+        <v>4.1133870406587496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>188.3</v>
+      </c>
+      <c r="B26">
+        <v>2.75005135838907</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>207.9</v>
+      </c>
+      <c r="B27">
+        <v>3.4157496341194902</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>A18-$A$18</f>
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <f>B18</f>
+        <v>7.45074499169914</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>A19-$A$18</f>
+        <v>20.6999999999998</v>
+      </c>
+      <c r="B30">
+        <f>B19</f>
+        <v>6.7848135299678498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>A20-$A$18</f>
+        <v>42.099999999999397</v>
+      </c>
+      <c r="B31">
+        <f>B20</f>
+        <v>6.2798985301858297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>A21-$A$18</f>
+        <v>63.399999999999608</v>
+      </c>
+      <c r="B32">
+        <f>B21</f>
+        <v>5.9542552057932303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>A22-$A$18</f>
+        <v>83.699999999999804</v>
+      </c>
+      <c r="B33">
+        <f>B22</f>
+        <v>5.0167763103977601</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>A23-$A$18</f>
+        <v>105.7999999999998</v>
+      </c>
+      <c r="B34">
+        <f>B23</f>
+        <v>4.9088777194750302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>A24-$A$18</f>
+        <v>126.1999999999998</v>
+      </c>
+      <c r="B35">
+        <f>B24</f>
+        <v>3.6796119393425499</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>A25-$A$18</f>
+        <v>147.89999999999978</v>
+      </c>
+      <c r="B36">
+        <f>B25</f>
+        <v>4.1133870406587496</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>A26-$A$18</f>
+        <v>168.9999999999998</v>
+      </c>
+      <c r="B37">
+        <f>B26</f>
+        <v>2.75005135838907</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>A27-$A$18</f>
+        <v>188.5999999999998</v>
+      </c>
+      <c r="B38">
+        <f>B27</f>
+        <v>3.4157496341194902</v>
       </c>
     </row>
   </sheetData>
@@ -6349,10 +12341,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1C8B78-07E6-4D86-83A0-A09E3B0792B2}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6499,6 +12491,173 @@
       <c r="B17">
         <f t="shared" si="1"/>
         <v>5.5954594490508401E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>9.2056124768599701E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>52.599999999999902</v>
+      </c>
+      <c r="B22">
+        <v>0.10697229548256799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>72.5</v>
+      </c>
+      <c r="B23">
+        <v>8.1294793059363504E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>94.599999999999895</v>
+      </c>
+      <c r="B24">
+        <v>8.9999230976961095E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>114.5</v>
+      </c>
+      <c r="B25">
+        <v>6.8486643252296295E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>136.6</v>
+      </c>
+      <c r="B26">
+        <v>7.40351363167321E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>157.4</v>
+      </c>
+      <c r="B27">
+        <v>5.0440245367028201E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>178.6</v>
+      </c>
+      <c r="B28">
+        <v>5.9173127206184901E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>198.4</v>
+      </c>
+      <c r="B29">
+        <v>3.7901983535158799E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>A21-$A$21</f>
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <f>B21</f>
+        <v>9.2056124768599701E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" ref="A33:A40" si="2">A22-$A$21</f>
+        <v>22.599999999999902</v>
+      </c>
+      <c r="B33">
+        <f>B22</f>
+        <v>0.10697229548256799</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>42.5</v>
+      </c>
+      <c r="B34">
+        <f>B23</f>
+        <v>8.1294793059363504E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>64.599999999999895</v>
+      </c>
+      <c r="B35">
+        <f>B24</f>
+        <v>8.9999230976961095E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>84.5</v>
+      </c>
+      <c r="B36">
+        <f>B25</f>
+        <v>6.8486643252296295E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>106.6</v>
+      </c>
+      <c r="B37">
+        <f>B26</f>
+        <v>7.40351363167321E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>127.4</v>
+      </c>
+      <c r="B38">
+        <f>B27</f>
+        <v>5.0440245367028201E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>148.6</v>
+      </c>
+      <c r="B39">
+        <f>B28</f>
+        <v>5.9173127206184901E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>168.4</v>
+      </c>
+      <c r="B40">
+        <f>B29</f>
+        <v>3.7901983535158799E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6509,132 +12668,232 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A6498F-CCB0-47BA-B3F1-893AA4B69CAC}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>2.3999999999996402</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4.0999999999999099</v>
-      </c>
-      <c r="B2" s="1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5.5999999999999099</v>
-      </c>
-      <c r="B3">
-        <v>0.23221898299354199</v>
-      </c>
+        <v>2.3999999999996402</v>
+      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7.3000000000001801</v>
-      </c>
-      <c r="B4">
-        <v>0.15758625501555701</v>
-      </c>
+        <v>4.0999999999999099</v>
+      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>9</v>
+        <v>5.5999999999999099</v>
       </c>
       <c r="B5">
-        <v>0.13020505491333501</v>
+        <v>0.23221898299354199</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>10.8000000000002</v>
+        <v>7.3000000000001801</v>
       </c>
       <c r="B6">
-        <v>7.4651502265256894E-2</v>
+        <v>0.15758625501555701</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>12.399999999999601</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>7.1834642079332406E-2</v>
+        <v>0.13020505491333501</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>10.8000000000002</v>
+      </c>
+      <c r="B8">
+        <v>7.4651502265256894E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>12.399999999999601</v>
+      </c>
+      <c r="B9">
+        <v>7.1834642079332406E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>14.0999999999999</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>3.4664488531482497E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f>A3-$A$3</f>
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <f>B3</f>
-        <v>0.23221898299354199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" ref="A12:A16" si="0">A4-$A$3</f>
-        <v>1.7000000000002702</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ref="B12:B16" si="1">B4</f>
-        <v>0.15758625501555701</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
-        <v>3.4000000000000901</v>
+        <f>A5-$A$5</f>
+        <v>0</v>
       </c>
       <c r="B13">
-        <f t="shared" si="1"/>
-        <v>0.13020505491333501</v>
+        <f>B5</f>
+        <v>0.23221898299354199</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
-        <v>5.2000000000002897</v>
+        <f>A6-$A$5</f>
+        <v>1.7000000000002702</v>
       </c>
       <c r="B14">
-        <f t="shared" si="1"/>
-        <v>7.4651502265256894E-2</v>
+        <f>B6</f>
+        <v>0.15758625501555701</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
-        <v>6.7999999999996907</v>
+        <f>A7-$A$5</f>
+        <v>3.4000000000000901</v>
       </c>
       <c r="B15">
-        <f t="shared" si="1"/>
-        <v>7.1834642079332406E-2</v>
+        <f>B7</f>
+        <v>0.13020505491333501</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
+        <f>A8-$A$5</f>
+        <v>5.2000000000002897</v>
+      </c>
+      <c r="B16">
+        <f>B8</f>
+        <v>7.4651502265256894E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>A9-$A$5</f>
+        <v>6.7999999999996907</v>
+      </c>
+      <c r="B17">
+        <f>B9</f>
+        <v>7.1834642079332406E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>A10-$A$5</f>
+        <v>8.4999999999999893</v>
+      </c>
+      <c r="B18">
+        <f>B10</f>
+        <v>3.4664488531482497E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4.8999999999996398</v>
+      </c>
+      <c r="B21">
+        <v>0.30728582407159299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>6.3999999999996398</v>
+      </c>
+      <c r="B22">
+        <v>0.22557178103679201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>0.18476649477851001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>9.5</v>
+      </c>
+      <c r="B24">
+        <v>0.107037855984464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>11.0999999999999</v>
+      </c>
+      <c r="B25">
+        <v>9.9854319038180706E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>A21-$A$21</f>
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <f>B21</f>
+        <v>0.30728582407159299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" ref="A28:A31" si="0">A22-$A$21</f>
+        <v>1.5</v>
+      </c>
+      <c r="B28">
+        <f>B22</f>
+        <v>0.22557178103679201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
         <f t="shared" si="0"/>
-        <v>8.4999999999999893</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="1"/>
-        <v>3.4664488531482497E-2</v>
+        <v>3.1000000000003602</v>
+      </c>
+      <c r="B29">
+        <f>B23</f>
+        <v>0.18476649477851001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>4.6000000000003602</v>
+      </c>
+      <c r="B30">
+        <f>B24</f>
+        <v>0.107037855984464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>6.2000000000002604</v>
+      </c>
+      <c r="B31">
+        <f>B25</f>
+        <v>9.9854319038180706E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6645,10 +12904,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2F43FA-14E3-4C90-A7E3-B7BB9998CC21}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6753,6 +13012,101 @@
       <c r="B14">
         <f t="shared" si="1"/>
         <v>5.3926160413904703E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5.6999999999998199</v>
+      </c>
+      <c r="B18">
+        <v>0.246080176305816</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7.3000000000001801</v>
+      </c>
+      <c r="B19">
+        <v>0.16792644762581199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8.8999999999996398</v>
+      </c>
+      <c r="B20">
+        <v>0.13146960297941099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10.399999999999601</v>
+      </c>
+      <c r="B21">
+        <v>8.8878205295024895E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>11.899999999999601</v>
+      </c>
+      <c r="B22">
+        <v>6.7539080136582899E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>A18-$A$18</f>
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <f>B18</f>
+        <v>0.246080176305816</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>A19-$A$18</f>
+        <v>1.6000000000003602</v>
+      </c>
+      <c r="B25">
+        <f>B19</f>
+        <v>0.16792644762581199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>A20-$A$18</f>
+        <v>3.1999999999998199</v>
+      </c>
+      <c r="B26">
+        <f>B20</f>
+        <v>0.13146960297941099</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>A21-$A$18</f>
+        <v>4.6999999999997808</v>
+      </c>
+      <c r="B27">
+        <f>B21</f>
+        <v>8.8878205295024895E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>A22-$A$18</f>
+        <v>6.1999999999997808</v>
+      </c>
+      <c r="B28">
+        <f>B22</f>
+        <v>6.7539080136582899E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6763,10 +13117,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C11013-AC68-48ED-AC1B-14672B21CCC9}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6835,6 +13189,65 @@
       <c r="B9">
         <f>B5</f>
         <v>8.8205286861161206E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4.0999999999999099</v>
+      </c>
+      <c r="B19">
+        <v>0.25867940103172798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5.5999999999999099</v>
+      </c>
+      <c r="B20">
+        <v>0.181108569155323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>0.12018108391044401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>A19-$A$19</f>
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <f>B19</f>
+        <v>0.25867940103172798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" ref="A25:A27" si="1">A20-$A$19</f>
+        <v>1.5</v>
+      </c>
+      <c r="B25">
+        <f>B20</f>
+        <v>0.181108569155323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>2.9000000000000901</v>
+      </c>
+      <c r="B26">
+        <f>B21</f>
+        <v>0.12018108391044401</v>
       </c>
     </row>
   </sheetData>
@@ -6845,10 +13258,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A7F063-7DF3-47FD-BDD5-86310B154E7B}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6919,6 +13332,65 @@
         <v>4.3837518197881099E-2</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>0.20418367901426199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6.5</v>
+      </c>
+      <c r="B20">
+        <v>0.117945386733829</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7.8000000000001801</v>
+      </c>
+      <c r="B21">
+        <v>6.06969126408664E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>A19-$A$19</f>
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <f>B19</f>
+        <v>0.20418367901426199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" ref="A24:A25" si="1">A20-$A$19</f>
+        <v>1.5</v>
+      </c>
+      <c r="B24">
+        <f>B20</f>
+        <v>0.117945386733829</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>2.8000000000001801</v>
+      </c>
+      <c r="B25">
+        <f>B21</f>
+        <v>6.06969126408664E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/FlightDataAnalysis/Exponential_regression.xlsx
+++ b/FlightDataAnalysis/Exponential_regression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Documents\GitHub\FlightDynamicsSVV\FlightDataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62932B87-DD54-4677-B764-ABECD2398FCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2434EB-1504-4080-8BC6-ECE6305A80AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="1665" windowWidth="28770" windowHeight="15570" firstSheet="4" activeTab="4" xr2:uid="{12215BDE-42B0-4DC8-8CEE-8812EE512323}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{12215BDE-42B0-4DC8-8CEE-8812EE512323}"/>
   </bookViews>
   <sheets>
     <sheet name="Phugoid_V" sheetId="1" r:id="rId1"/>
@@ -12235,101 +12235,101 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f>A18-$A$18</f>
+        <f t="shared" ref="A29:A38" si="2">A18-$A$18</f>
         <v>0</v>
       </c>
       <c r="B29">
-        <f>B18</f>
+        <f t="shared" ref="B29:B38" si="3">B18</f>
         <v>7.45074499169914</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>A19-$A$18</f>
+        <f t="shared" si="2"/>
         <v>20.6999999999998</v>
       </c>
       <c r="B30">
-        <f>B19</f>
+        <f t="shared" si="3"/>
         <v>6.7848135299678498</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f>A20-$A$18</f>
+        <f t="shared" si="2"/>
         <v>42.099999999999397</v>
       </c>
       <c r="B31">
-        <f>B20</f>
+        <f t="shared" si="3"/>
         <v>6.2798985301858297</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>A21-$A$18</f>
+        <f t="shared" si="2"/>
         <v>63.399999999999608</v>
       </c>
       <c r="B32">
-        <f>B21</f>
+        <f t="shared" si="3"/>
         <v>5.9542552057932303</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>A22-$A$18</f>
+        <f t="shared" si="2"/>
         <v>83.699999999999804</v>
       </c>
       <c r="B33">
-        <f>B22</f>
+        <f t="shared" si="3"/>
         <v>5.0167763103977601</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>A23-$A$18</f>
+        <f t="shared" si="2"/>
         <v>105.7999999999998</v>
       </c>
       <c r="B34">
-        <f>B23</f>
+        <f t="shared" si="3"/>
         <v>4.9088777194750302</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>A24-$A$18</f>
+        <f t="shared" si="2"/>
         <v>126.1999999999998</v>
       </c>
       <c r="B35">
-        <f>B24</f>
+        <f t="shared" si="3"/>
         <v>3.6796119393425499</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>A25-$A$18</f>
+        <f t="shared" si="2"/>
         <v>147.89999999999978</v>
       </c>
       <c r="B36">
-        <f>B25</f>
+        <f t="shared" si="3"/>
         <v>4.1133870406587496</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>A26-$A$18</f>
+        <f t="shared" si="2"/>
         <v>168.9999999999998</v>
       </c>
       <c r="B37">
-        <f>B26</f>
+        <f t="shared" si="3"/>
         <v>2.75005135838907</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>A27-$A$18</f>
+        <f t="shared" si="2"/>
         <v>188.5999999999998</v>
       </c>
       <c r="B38">
-        <f>B27</f>
+        <f t="shared" si="3"/>
         <v>3.4157496341194902</v>
       </c>
     </row>
@@ -12576,87 +12576,87 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <f>B21</f>
+        <f t="shared" ref="B32:B40" si="2">B21</f>
         <v>9.2056124768599701E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" ref="A33:A40" si="2">A22-$A$21</f>
+        <f t="shared" ref="A33:A40" si="3">A22-$A$21</f>
         <v>22.599999999999902</v>
       </c>
       <c r="B33">
-        <f>B22</f>
+        <f t="shared" si="2"/>
         <v>0.10697229548256799</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
+        <f t="shared" si="3"/>
+        <v>42.5</v>
+      </c>
+      <c r="B34">
         <f t="shared" si="2"/>
-        <v>42.5</v>
-      </c>
-      <c r="B34">
-        <f>B23</f>
         <v>8.1294793059363504E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
+        <f t="shared" si="3"/>
+        <v>64.599999999999895</v>
+      </c>
+      <c r="B35">
         <f t="shared" si="2"/>
-        <v>64.599999999999895</v>
-      </c>
-      <c r="B35">
-        <f>B24</f>
         <v>8.9999230976961095E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
+        <f t="shared" si="3"/>
+        <v>84.5</v>
+      </c>
+      <c r="B36">
         <f t="shared" si="2"/>
-        <v>84.5</v>
-      </c>
-      <c r="B36">
-        <f>B25</f>
         <v>6.8486643252296295E-2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
+        <f t="shared" si="3"/>
+        <v>106.6</v>
+      </c>
+      <c r="B37">
         <f t="shared" si="2"/>
-        <v>106.6</v>
-      </c>
-      <c r="B37">
-        <f>B26</f>
         <v>7.40351363167321E-2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
+        <f t="shared" si="3"/>
+        <v>127.4</v>
+      </c>
+      <c r="B38">
         <f t="shared" si="2"/>
-        <v>127.4</v>
-      </c>
-      <c r="B38">
-        <f>B27</f>
         <v>5.0440245367028201E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
+        <f t="shared" si="3"/>
+        <v>148.6</v>
+      </c>
+      <c r="B39">
         <f t="shared" si="2"/>
-        <v>148.6</v>
-      </c>
-      <c r="B39">
-        <f>B28</f>
         <v>5.9173127206184901E-2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
+        <f t="shared" si="3"/>
+        <v>168.4</v>
+      </c>
+      <c r="B40">
         <f t="shared" si="2"/>
-        <v>168.4</v>
-      </c>
-      <c r="B40">
-        <f>B29</f>
         <v>3.7901983535158799E-2</v>
       </c>
     </row>
@@ -12743,61 +12743,61 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>A5-$A$5</f>
+        <f t="shared" ref="A13:A18" si="0">A5-$A$5</f>
         <v>0</v>
       </c>
       <c r="B13">
-        <f>B5</f>
+        <f t="shared" ref="B13:B18" si="1">B5</f>
         <v>0.23221898299354199</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>A6-$A$5</f>
+        <f t="shared" si="0"/>
         <v>1.7000000000002702</v>
       </c>
       <c r="B14">
-        <f>B6</f>
+        <f t="shared" si="1"/>
         <v>0.15758625501555701</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>A7-$A$5</f>
+        <f t="shared" si="0"/>
         <v>3.4000000000000901</v>
       </c>
       <c r="B15">
-        <f>B7</f>
+        <f t="shared" si="1"/>
         <v>0.13020505491333501</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>A8-$A$5</f>
+        <f t="shared" si="0"/>
         <v>5.2000000000002897</v>
       </c>
       <c r="B16">
-        <f>B8</f>
+        <f t="shared" si="1"/>
         <v>7.4651502265256894E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>A9-$A$5</f>
+        <f t="shared" si="0"/>
         <v>6.7999999999996907</v>
       </c>
       <c r="B17">
-        <f>B9</f>
+        <f t="shared" si="1"/>
         <v>7.1834642079332406E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>A10-$A$5</f>
+        <f t="shared" si="0"/>
         <v>8.4999999999999893</v>
       </c>
       <c r="B18">
-        <f>B10</f>
+        <f t="shared" si="1"/>
         <v>3.4664488531482497E-2</v>
       </c>
     </row>
@@ -12858,7 +12858,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" ref="A28:A31" si="0">A22-$A$21</f>
+        <f t="shared" ref="A28:A31" si="2">A22-$A$21</f>
         <v>1.5</v>
       </c>
       <c r="B28">
@@ -12868,7 +12868,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1000000000003602</v>
       </c>
       <c r="B29">
@@ -12878,7 +12878,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.6000000000003602</v>
       </c>
       <c r="B30">
@@ -12888,7 +12888,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.2000000000002604</v>
       </c>
       <c r="B31">
@@ -13119,7 +13119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C11013-AC68-48ED-AC1B-14672B21CCC9}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
@@ -13232,7 +13232,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" ref="A25:A27" si="1">A20-$A$19</f>
+        <f t="shared" ref="A25:A26" si="1">A20-$A$19</f>
         <v>1.5</v>
       </c>
       <c r="B25">
